--- a/neural-networks_Technical-specifications .xlsx
+++ b/neural-networks_Technical-specifications .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x-y-zhou/Documents/GitHub/Research/machine-learning/ode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x-y-zhou/Documents/GitHub/VAE-CME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A3DD9A-5263-C847-902A-14CD1C627008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4C31E2-B63F-3040-A936-BBF8FA933E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2840" windowWidth="28240" windowHeight="17440" xr2:uid="{71BCEB53-C3DA-BC49-BCA0-67558D317BA7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="20700" xr2:uid="{71BCEB53-C3DA-BC49-BCA0-67558D317BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>birth-death</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,92 @@
   </si>
   <si>
     <t>on-off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Truncation</t>
+  </si>
+  <si>
+    <t>Hidden neurons</t>
+  </si>
+  <si>
+    <t>Latent Size</t>
+  </si>
+  <si>
+    <t>Learning rate</t>
+  </si>
+  <si>
+    <t>Snapshot</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>sigma_on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigma_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_1xS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_d</t>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_2xE_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_m</t>
+  </si>
+  <si>
+    <t>oscillation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$3000$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample collect time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,1,…,100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10,20,…,120,140,160,…,1200}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,0.1,…,10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{20,40,…,200}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,14 +509,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2069C81-2292-8E45-AA8F-3F1F8ACD9691}">
-  <dimension ref="A2:R4"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
@@ -590,8 +734,99 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>